--- a/einstein.xlsx
+++ b/einstein.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>Házsorszám és szín</t>
   </si>
@@ -123,13 +123,22 @@
   </si>
   <si>
     <t>vizet</t>
+  </si>
+  <si>
+    <t>víz</t>
+  </si>
+  <si>
+    <t>Rothmanns</t>
+  </si>
+  <si>
+    <t>HAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +159,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -215,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -226,6 +243,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1060,7 +1080,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1077,17 +1097,17 @@
       <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>2</v>
+      <c r="C1" s="9">
+        <v>3</v>
       </c>
       <c r="D1" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="8">
         <v>4</v>
       </c>
-      <c r="F1" s="9">
-        <v>5</v>
+      <c r="F1" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1098,16 +1118,16 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1115,19 +1135,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1138,16 +1158,16 @@
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1155,16 +1175,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/einstein.xlsx
+++ b/einstein.xlsx
@@ -173,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1080,7 +1086,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
